--- a/oossmicro.xlsx
+++ b/oossmicro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\proyecto_sindicalizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36C1596-E8DC-4E62-9F32-AD987BB94E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB4C15E-2C90-4DB9-A49A-DED6F863972B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="79">
   <si>
     <t>rama_de_actividad_economica_de_la_ooss_de_base</t>
   </si>
@@ -217,49 +217,46 @@
     <t>I</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
     <t>K</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
     <t>Q</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>CAENES_1d</t>
   </si>
   <si>
     <t>cae_1d</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>HJ</t>
+  </si>
+  <si>
+    <t>LMN</t>
   </si>
 </sst>
 </file>
@@ -614,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:D39"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="D171" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -625,7 +622,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -634,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -648,7 +645,7 @@
         <v>2018</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -662,7 +659,7 @@
         <v>2016</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -676,7 +673,7 @@
         <v>2017</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -830,7 +827,7 @@
         <v>2018</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -844,7 +841,7 @@
         <v>2019</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -858,7 +855,7 @@
         <v>2021</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -872,7 +869,7 @@
         <v>2022</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -886,7 +883,7 @@
         <v>2016</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -900,7 +897,7 @@
         <v>2017</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -914,7 +911,7 @@
         <v>2018</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -928,7 +925,7 @@
         <v>2019</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -942,7 +939,7 @@
         <v>2020</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -956,7 +953,7 @@
         <v>2021</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -970,7 +967,7 @@
         <v>2022</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -984,7 +981,7 @@
         <v>2016</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -998,7 +995,7 @@
         <v>2017</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1012,7 +1009,7 @@
         <v>2018</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1026,7 +1023,7 @@
         <v>2018</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1040,7 +1037,7 @@
         <v>2019</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1054,7 +1051,7 @@
         <v>2021</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1068,7 +1065,7 @@
         <v>2022</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1082,7 +1079,7 @@
         <v>2016</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1096,7 +1093,7 @@
         <v>2017</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1110,7 +1107,7 @@
         <v>2018</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -1124,7 +1121,7 @@
         <v>2019</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -1138,7 +1135,7 @@
         <v>2020</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -1152,7 +1149,7 @@
         <v>2021</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1166,7 +1163,7 @@
         <v>2022</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -1180,7 +1177,7 @@
         <v>2016</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1194,7 +1191,7 @@
         <v>2017</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1208,7 +1205,7 @@
         <v>2018</v>
       </c>
       <c r="D42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1222,7 +1219,7 @@
         <v>2019</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -1236,7 +1233,7 @@
         <v>2020</v>
       </c>
       <c r="D44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -1250,7 +1247,7 @@
         <v>2021</v>
       </c>
       <c r="D45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -1264,7 +1261,7 @@
         <v>2022</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -1278,7 +1275,7 @@
         <v>2016</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -1292,7 +1289,7 @@
         <v>2017</v>
       </c>
       <c r="D48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -1306,7 +1303,7 @@
         <v>2018</v>
       </c>
       <c r="D49" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -1320,7 +1317,7 @@
         <v>2018</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -1334,7 +1331,7 @@
         <v>2019</v>
       </c>
       <c r="D51" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -1348,7 +1345,7 @@
         <v>2020</v>
       </c>
       <c r="D52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -1362,7 +1359,7 @@
         <v>2021</v>
       </c>
       <c r="D53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -1376,7 +1373,7 @@
         <v>2022</v>
       </c>
       <c r="D54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -1418,7 +1415,7 @@
         <v>2018</v>
       </c>
       <c r="D57" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -1432,7 +1429,7 @@
         <v>2019</v>
       </c>
       <c r="D58" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -1446,7 +1443,7 @@
         <v>2021</v>
       </c>
       <c r="D59" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -1460,7 +1457,7 @@
         <v>2022</v>
       </c>
       <c r="D60" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -1474,7 +1471,7 @@
         <v>2016</v>
       </c>
       <c r="D61" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -1488,7 +1485,7 @@
         <v>2017</v>
       </c>
       <c r="D62" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -1502,7 +1499,7 @@
         <v>2018</v>
       </c>
       <c r="D63" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -1572,7 +1569,7 @@
         <v>2016</v>
       </c>
       <c r="D68" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -1586,7 +1583,7 @@
         <v>2017</v>
       </c>
       <c r="D69" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -1600,7 +1597,7 @@
         <v>2018</v>
       </c>
       <c r="D70" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -1614,7 +1611,7 @@
         <v>2019</v>
       </c>
       <c r="D71" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -1628,7 +1625,7 @@
         <v>2021</v>
       </c>
       <c r="D72" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -1642,7 +1639,7 @@
         <v>2022</v>
       </c>
       <c r="D73" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -1656,7 +1653,7 @@
         <v>2016</v>
       </c>
       <c r="D74" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -1670,7 +1667,7 @@
         <v>2017</v>
       </c>
       <c r="D75" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -1684,7 +1681,7 @@
         <v>2018</v>
       </c>
       <c r="D76" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -1698,7 +1695,7 @@
         <v>2018</v>
       </c>
       <c r="D77" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -1712,7 +1709,7 @@
         <v>2019</v>
       </c>
       <c r="D78" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -1726,7 +1723,7 @@
         <v>2021</v>
       </c>
       <c r="D79" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -1740,7 +1737,7 @@
         <v>2022</v>
       </c>
       <c r="D80" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -1754,7 +1751,7 @@
         <v>2016</v>
       </c>
       <c r="D81" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -1768,7 +1765,7 @@
         <v>2017</v>
       </c>
       <c r="D82" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -1782,7 +1779,7 @@
         <v>2018</v>
       </c>
       <c r="D83" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -1796,7 +1793,7 @@
         <v>2018</v>
       </c>
       <c r="D84" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -1810,7 +1807,7 @@
         <v>2019</v>
       </c>
       <c r="D85" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -1824,7 +1821,7 @@
         <v>2021</v>
       </c>
       <c r="D86" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -1838,7 +1835,7 @@
         <v>2022</v>
       </c>
       <c r="D87" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -1894,7 +1891,7 @@
         <v>2018</v>
       </c>
       <c r="D91" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -1908,7 +1905,7 @@
         <v>2019</v>
       </c>
       <c r="D92" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -1922,7 +1919,7 @@
         <v>2020</v>
       </c>
       <c r="D93" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -1936,7 +1933,7 @@
         <v>2021</v>
       </c>
       <c r="D94" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -1950,7 +1947,7 @@
         <v>2022</v>
       </c>
       <c r="D95" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -1964,7 +1961,7 @@
         <v>2016</v>
       </c>
       <c r="D96" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -1978,7 +1975,7 @@
         <v>2017</v>
       </c>
       <c r="D97" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -1992,7 +1989,7 @@
         <v>2018</v>
       </c>
       <c r="D98" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -2006,7 +2003,7 @@
         <v>2018</v>
       </c>
       <c r="D99" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -2020,7 +2017,7 @@
         <v>2019</v>
       </c>
       <c r="D100" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -2034,7 +2031,7 @@
         <v>2020</v>
       </c>
       <c r="D101" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
@@ -2048,7 +2045,7 @@
         <v>2021</v>
       </c>
       <c r="D102" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
@@ -2062,7 +2059,7 @@
         <v>2022</v>
       </c>
       <c r="D103" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -2076,7 +2073,7 @@
         <v>2016</v>
       </c>
       <c r="D104" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -2090,7 +2087,7 @@
         <v>2017</v>
       </c>
       <c r="D105" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
@@ -2104,7 +2101,7 @@
         <v>2018</v>
       </c>
       <c r="D106" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
@@ -2118,7 +2115,7 @@
         <v>2018</v>
       </c>
       <c r="D107" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -2132,7 +2129,7 @@
         <v>2019</v>
       </c>
       <c r="D108" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
@@ -2146,7 +2143,7 @@
         <v>2020</v>
       </c>
       <c r="D109" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
@@ -2160,7 +2157,7 @@
         <v>2021</v>
       </c>
       <c r="D110" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
@@ -2174,7 +2171,7 @@
         <v>2022</v>
       </c>
       <c r="D111" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -2188,7 +2185,7 @@
         <v>2016</v>
       </c>
       <c r="D112" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -2202,7 +2199,7 @@
         <v>2017</v>
       </c>
       <c r="D113" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -2286,7 +2283,7 @@
         <v>2016</v>
       </c>
       <c r="D119" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
@@ -2300,7 +2297,7 @@
         <v>2017</v>
       </c>
       <c r="D120" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -2314,7 +2311,7 @@
         <v>2018</v>
       </c>
       <c r="D121" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -2328,7 +2325,7 @@
         <v>2019</v>
       </c>
       <c r="D122" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
@@ -2342,7 +2339,7 @@
         <v>2020</v>
       </c>
       <c r="D123" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -2356,7 +2353,7 @@
         <v>2021</v>
       </c>
       <c r="D124" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -2370,7 +2367,7 @@
         <v>2022</v>
       </c>
       <c r="D125" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
@@ -2384,7 +2381,7 @@
         <v>2018</v>
       </c>
       <c r="D126" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -2398,7 +2395,7 @@
         <v>2019</v>
       </c>
       <c r="D127" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -2412,7 +2409,7 @@
         <v>2020</v>
       </c>
       <c r="D128" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -2426,7 +2423,7 @@
         <v>2021</v>
       </c>
       <c r="D129" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -2440,7 +2437,7 @@
         <v>2022</v>
       </c>
       <c r="D130" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
@@ -2454,7 +2451,7 @@
         <v>2018</v>
       </c>
       <c r="D131" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
@@ -2468,7 +2465,7 @@
         <v>2019</v>
       </c>
       <c r="D132" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
@@ -2482,7 +2479,7 @@
         <v>2020</v>
       </c>
       <c r="D133" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
@@ -2496,7 +2493,7 @@
         <v>2021</v>
       </c>
       <c r="D134" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
@@ -2510,7 +2507,7 @@
         <v>2022</v>
       </c>
       <c r="D135" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -2524,7 +2521,7 @@
         <v>2018</v>
       </c>
       <c r="D136" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
@@ -2538,7 +2535,7 @@
         <v>2018</v>
       </c>
       <c r="D137" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
@@ -2552,7 +2549,7 @@
         <v>2019</v>
       </c>
       <c r="D138" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -2566,7 +2563,7 @@
         <v>2021</v>
       </c>
       <c r="D139" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
@@ -2580,7 +2577,7 @@
         <v>2022</v>
       </c>
       <c r="D140" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
@@ -2594,7 +2591,7 @@
         <v>2018</v>
       </c>
       <c r="D141" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
@@ -2608,7 +2605,7 @@
         <v>2019</v>
       </c>
       <c r="D142" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
@@ -2622,7 +2619,7 @@
         <v>2020</v>
       </c>
       <c r="D143" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -2636,7 +2633,7 @@
         <v>2021</v>
       </c>
       <c r="D144" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
@@ -2650,7 +2647,7 @@
         <v>2022</v>
       </c>
       <c r="D145" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
@@ -2664,7 +2661,7 @@
         <v>2019</v>
       </c>
       <c r="D146" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
@@ -2678,7 +2675,7 @@
         <v>2020</v>
       </c>
       <c r="D147" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
@@ -2692,7 +2689,7 @@
         <v>2021</v>
       </c>
       <c r="D148" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
@@ -2706,7 +2703,7 @@
         <v>2022</v>
       </c>
       <c r="D149" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
@@ -2717,7 +2714,7 @@
         <v>2023</v>
       </c>
       <c r="D150" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -2728,7 +2725,7 @@
         <v>2023</v>
       </c>
       <c r="D151" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
@@ -2739,7 +2736,7 @@
         <v>2023</v>
       </c>
       <c r="D152" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
@@ -2761,7 +2758,7 @@
         <v>2023</v>
       </c>
       <c r="D154" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
@@ -2772,7 +2769,7 @@
         <v>2023</v>
       </c>
       <c r="D155" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
@@ -2794,7 +2791,7 @@
         <v>2023</v>
       </c>
       <c r="D157" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
@@ -2805,7 +2802,7 @@
         <v>2023</v>
       </c>
       <c r="D158" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -2816,7 +2813,7 @@
         <v>2023</v>
       </c>
       <c r="D159" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
@@ -2838,7 +2835,7 @@
         <v>2023</v>
       </c>
       <c r="D161" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
@@ -2849,7 +2846,7 @@
         <v>2023</v>
       </c>
       <c r="D162" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
@@ -2860,7 +2857,7 @@
         <v>2023</v>
       </c>
       <c r="D163" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
@@ -2871,7 +2868,7 @@
         <v>2023</v>
       </c>
       <c r="D164" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
@@ -2882,7 +2879,7 @@
         <v>2023</v>
       </c>
       <c r="D165" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
@@ -2893,7 +2890,7 @@
         <v>2023</v>
       </c>
       <c r="D166" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
@@ -2904,7 +2901,7 @@
         <v>2023</v>
       </c>
       <c r="D167" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
@@ -2915,7 +2912,7 @@
         <v>2023</v>
       </c>
       <c r="D168" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
@@ -2926,7 +2923,7 @@
         <v>2023</v>
       </c>
       <c r="D169" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
@@ -2937,7 +2934,7 @@
         <v>2023</v>
       </c>
       <c r="D170" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
@@ -2948,7 +2945,7 @@
         <v>2023</v>
       </c>
       <c r="D171" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
